--- a/commands/functions/excel/escudos.xlsx
+++ b/commands/functions/excel/escudos.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -434,9 +434,41 @@
         <v>5215538901631</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Kitana</v>
+      </c>
+      <c r="B5">
+        <v>50683267977</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Jony</v>
+      </c>
+      <c r="B6">
+        <v>5493815768514</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ashborn</v>
+      </c>
+      <c r="B7">
+        <v>584162672027</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>LucasArg</v>
+      </c>
+      <c r="B8">
+        <v>543489661644</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/commands/functions/excel/escudos.xlsx
+++ b/commands/functions/excel/escudos.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -466,9 +466,33 @@
         <v>543489661644</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Brandon</v>
+      </c>
+      <c r="B9">
+        <v>525584183166</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Yoel</v>
+      </c>
+      <c r="B10">
+        <v>584242029084</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Jeni</v>
+      </c>
+      <c r="B11">
+        <v>56931235619</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>